--- a/biology/Zoologie/Genetta_cristata/Genetta_cristata.xlsx
+++ b/biology/Zoologie/Genetta_cristata/Genetta_cristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genetta cristata est une espèce de mammifères carnivores de la famille des Viverridés. Les Viverridés sont une famille de mammifères carnivores de taille moyenne (environ 90 cm de longueur totale), au corps allongé et aux pattes assez courtes, avec une queue touffue annelée de noir aussi longue que le corps. Ils sont arboricoles, plutôt nocturnes et ne dédaignent pas de compléter leur régime carné par des fruits.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genetta cristata se rencontre à la frontière entre le Cameroun et le Nigeria[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genetta cristata se rencontre à la frontière entre le Cameroun et le Nigeria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est appelée communément Crested Servaline Genet en anglais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est appelée communément Crested Servaline Genet en anglais.
 </t>
         </is>
       </c>
